--- a/analysis/metadata/P12_2/P12_2_minimal_metadata.xlsx
+++ b/analysis/metadata/P12_2/P12_2_minimal_metadata.xlsx
@@ -473,7 +473,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2013-09-14</t>
+          <t>14/09/2013 00:00</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -498,7 +498,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>2013-09-14</t>
+          <t>14/09/2013 00:00</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -551,7 +551,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2013-09-14</t>
+          <t>14/09/2013 00:00</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -576,7 +576,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>2013-09-14</t>
+          <t>14/09/2013 00:00</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -629,7 +629,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2013-09-14</t>
+          <t>14/09/2013 00:00</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -654,7 +654,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>2013-09-14</t>
+          <t>14/09/2013 00:00</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -707,7 +707,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2013-09-14</t>
+          <t>14/09/2013 00:00</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -732,7 +732,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>2013-09-14</t>
+          <t>14/09/2013 00:00</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -785,7 +785,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2013-09-14</t>
+          <t>14/09/2013 00:00</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -810,7 +810,7 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>2013-09-14</t>
+          <t>14/09/2013 00:00</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
@@ -863,7 +863,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2013-09-14</t>
+          <t>14/09/2013 00:00</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>2013-09-14</t>
+          <t>14/09/2013 00:00</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2013-09-14</t>
+          <t>14/09/2013 00:00</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -966,7 +966,7 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>2013-09-14</t>
+          <t>14/09/2013 00:00</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
@@ -1019,7 +1019,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2013-09-28</t>
+          <t>25/01/2022 00:00</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1044,7 +1044,7 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>2013-09-28</t>
+          <t>25/01/2022 00:00</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
@@ -1097,7 +1097,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2013-09-28</t>
+          <t>25/01/2022 00:00</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1122,7 +1122,7 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>2013-09-28</t>
+          <t>25/01/2022 00:00</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
@@ -1175,7 +1175,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2013-09-28</t>
+          <t>25/01/2022 00:00</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1200,7 +1200,7 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>2013-09-28</t>
+          <t>25/01/2022 00:00</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
@@ -1253,7 +1253,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2013-09-28</t>
+          <t>25/01/2022 00:00</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1278,7 +1278,7 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>2013-09-28</t>
+          <t>25/01/2022 00:00</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
@@ -1331,7 +1331,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2013-09-28</t>
+          <t>25/01/2022 00:00</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1356,7 +1356,7 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>2013-09-28</t>
+          <t>25/01/2022 00:00</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
@@ -1409,7 +1409,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2013-09-28</t>
+          <t>25/01/2022 00:00</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1434,7 +1434,7 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>2013-09-28</t>
+          <t>25/01/2022 00:00</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
@@ -1487,7 +1487,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2013-10-26</t>
+          <t>25/01/2022 00:00</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1512,7 +1512,7 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>2013-10-26</t>
+          <t>25/01/2022 00:00</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
@@ -1565,7 +1565,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2013-10-26</t>
+          <t>25/01/2022 00:00</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1590,7 +1590,7 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>2013-10-26</t>
+          <t>25/01/2022 00:00</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
@@ -1643,7 +1643,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2013-10-26</t>
+          <t>25/01/2022 00:00</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1668,7 +1668,7 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>2013-10-26</t>
+          <t>25/01/2022 00:00</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
@@ -1721,7 +1721,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2013-10-26</t>
+          <t>25/01/2022 00:00</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1746,7 +1746,7 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>2013-10-26</t>
+          <t>25/01/2022 00:00</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
@@ -1799,7 +1799,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2013-10-26</t>
+          <t>25/01/2022 00:00</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1824,7 +1824,7 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>2013-10-26</t>
+          <t>25/01/2022 00:00</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">

--- a/analysis/metadata/P12_2/P12_2_minimal_metadata.xlsx
+++ b/analysis/metadata/P12_2/P12_2_minimal_metadata.xlsx
@@ -473,7 +473,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>14/09/2013 00:00</t>
+          <t>2013-09-14</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -498,7 +498,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>14/09/2013 00:00</t>
+          <t>2013-09-14</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -551,7 +551,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>14/09/2013 00:00</t>
+          <t>2013-09-14</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -576,7 +576,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>14/09/2013 00:00</t>
+          <t>2013-09-14</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -629,7 +629,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>14/09/2013 00:00</t>
+          <t>2013-09-14</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -654,7 +654,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>14/09/2013 00:00</t>
+          <t>2013-09-14</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -707,7 +707,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>14/09/2013 00:00</t>
+          <t>2013-09-14</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -732,7 +732,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>14/09/2013 00:00</t>
+          <t>2013-09-14</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -785,7 +785,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>14/09/2013 00:00</t>
+          <t>2013-09-14</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -810,7 +810,7 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>14/09/2013 00:00</t>
+          <t>2013-09-14</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
@@ -863,7 +863,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>14/09/2013 00:00</t>
+          <t>2013-09-14</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>14/09/2013 00:00</t>
+          <t>2013-09-14</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>14/09/2013 00:00</t>
+          <t>2013-09-14</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -966,7 +966,7 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>14/09/2013 00:00</t>
+          <t>2013-09-14</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
@@ -1019,7 +1019,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>25/01/2022 00:00</t>
+          <t>2022-01-25</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1044,7 +1044,7 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>25/01/2022 00:00</t>
+          <t>2022-01-25</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
@@ -1097,7 +1097,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>25/01/2022 00:00</t>
+          <t>2022-01-25</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1122,7 +1122,7 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>25/01/2022 00:00</t>
+          <t>2022-01-25</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
@@ -1175,7 +1175,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>25/01/2022 00:00</t>
+          <t>2022-01-25</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1200,7 +1200,7 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>25/01/2022 00:00</t>
+          <t>2022-01-25</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
@@ -1253,7 +1253,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>25/01/2022 00:00</t>
+          <t>2022-01-25</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1278,7 +1278,7 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>25/01/2022 00:00</t>
+          <t>2022-01-25</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
@@ -1331,7 +1331,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>25/01/2022 00:00</t>
+          <t>2022-01-25</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1356,7 +1356,7 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>25/01/2022 00:00</t>
+          <t>2022-01-25</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
@@ -1409,7 +1409,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>25/01/2022 00:00</t>
+          <t>2022-01-25</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1434,7 +1434,7 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>25/01/2022 00:00</t>
+          <t>2022-01-25</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
@@ -1487,7 +1487,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>25/01/2022 00:00</t>
+          <t>2022-01-25</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1512,7 +1512,7 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>25/01/2022 00:00</t>
+          <t>2022-01-25</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
@@ -1565,7 +1565,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>25/01/2022 00:00</t>
+          <t>2022-01-25</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1590,7 +1590,7 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>25/01/2022 00:00</t>
+          <t>2022-01-25</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
@@ -1643,7 +1643,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>25/01/2022 00:00</t>
+          <t>2022-01-25</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1668,7 +1668,7 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>25/01/2022 00:00</t>
+          <t>2022-01-25</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
@@ -1721,7 +1721,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>25/01/2022 00:00</t>
+          <t>2022-01-25</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1746,7 +1746,7 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>25/01/2022 00:00</t>
+          <t>2022-01-25</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
@@ -1799,7 +1799,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>25/01/2022 00:00</t>
+          <t>2022-01-25</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1824,7 +1824,7 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>25/01/2022 00:00</t>
+          <t>2022-01-25</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">

--- a/analysis/metadata/P12_2/P12_2_minimal_metadata.xlsx
+++ b/analysis/metadata/P12_2/P12_2_minimal_metadata.xlsx
@@ -1019,7 +1019,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2022-01-25</t>
+          <t>2013-09-28</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1044,7 +1044,7 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>2022-01-25</t>
+          <t>2013-09-28</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
@@ -1097,7 +1097,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2022-01-25</t>
+          <t>2013-09-28</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1122,7 +1122,7 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>2022-01-25</t>
+          <t>2013-09-28</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
@@ -1175,7 +1175,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2022-01-25</t>
+          <t>2013-09-28</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1200,7 +1200,7 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>2022-01-25</t>
+          <t>2013-09-28</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
@@ -1253,7 +1253,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2022-01-25</t>
+          <t>2013-09-28</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1278,7 +1278,7 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>2022-01-25</t>
+          <t>2013-09-28</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
@@ -1331,7 +1331,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2022-01-25</t>
+          <t>2013-09-28</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1356,7 +1356,7 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>2022-01-25</t>
+          <t>2013-09-28</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
@@ -1409,7 +1409,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2022-01-25</t>
+          <t>2013-09-28</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1434,7 +1434,7 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>2022-01-25</t>
+          <t>2013-09-28</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
@@ -1487,7 +1487,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2022-01-25</t>
+          <t>2013-10-26</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1512,7 +1512,7 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>2022-01-25</t>
+          <t>2013-10-26</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
@@ -1565,7 +1565,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2022-01-25</t>
+          <t>2013-10-26</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1590,7 +1590,7 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>2022-01-25</t>
+          <t>2013-10-26</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
@@ -1643,7 +1643,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2022-01-25</t>
+          <t>2013-10-26</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1668,7 +1668,7 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>2022-01-25</t>
+          <t>2013-10-26</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
@@ -1721,7 +1721,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2022-01-25</t>
+          <t>2013-10-26</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1746,7 +1746,7 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>2022-01-25</t>
+          <t>2013-10-26</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
@@ -1799,7 +1799,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2022-01-25</t>
+          <t>2013-10-26</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1824,7 +1824,7 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>2022-01-25</t>
+          <t>2013-10-26</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
